--- a/חלק ג.xlsx
+++ b/חלק ג.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TLP-001\Documents\MATLAB\Lab2A-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{535F3E41-7CE9-4774-817C-23E414423241}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62AABD6-7030-453D-A6F8-81CDBB044AB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{35476A8D-989B-4A62-852D-9D4875AC858E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>frequency</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>90 משקולות</t>
+  </si>
+  <si>
+    <t>w_r</t>
+  </si>
+  <si>
+    <t>err</t>
   </si>
 </sst>
 </file>
@@ -4365,15 +4371,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1382780B-7FC4-479C-B149-9C66BF2B4196}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67:L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -4381,7 +4387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4395,7 +4401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -4410,7 +4416,7 @@
         <v>5.3800000000000007E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4425,8 +4431,14 @@
         <f>B5/1000</f>
         <v>1.25E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.1000000000000001</v>
       </c>
@@ -4441,8 +4453,17 @@
         <f t="shared" ref="D6:D20" si="1">B6/1000</f>
         <v>1.9599999999999999E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>90</v>
+      </c>
+      <c r="F6">
+        <v>11.4899028661922</v>
+      </c>
+      <c r="G6">
+        <v>1.3855857389826001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.2</v>
       </c>
@@ -4457,8 +4478,17 @@
         <f t="shared" si="1"/>
         <v>3.0499999999999998E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <v>9.7916965857243508</v>
+      </c>
+      <c r="G7">
+        <v>1.0604750921663001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.22</v>
       </c>
@@ -4473,8 +4503,17 @@
         <f t="shared" si="1"/>
         <v>3.7799999999999999E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>8.2384000000000004</v>
+      </c>
+      <c r="G8">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.24</v>
       </c>
@@ -4488,8 +4527,17 @@
         <f t="shared" si="1"/>
         <v>4.7800000000000004E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>7.5553077123396903</v>
+      </c>
+      <c r="G9">
+        <v>4.2826791990649999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.26</v>
       </c>
@@ -4504,7 +4552,7 @@
         <v>6.4400000000000004E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.28</v>
       </c>
@@ -4520,7 +4568,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.3</v>
       </c>
@@ -4536,7 +4584,7 @@
         <v>1.55E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.32</v>
       </c>
@@ -4552,7 +4600,7 @@
         <v>1.54E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.34</v>
       </c>
@@ -4568,7 +4616,7 @@
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.36</v>
       </c>
@@ -4583,7 +4631,7 @@
         <v>6.9199999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.38</v>
       </c>
@@ -4722,7 +4770,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:C41" si="2">A27*3.1415*2</f>
+        <f t="shared" ref="C27:C40" si="2">A27*3.1415*2</f>
         <v>10.241289999999999</v>
       </c>
       <c r="D27">
